--- a/PycharmProject/pythonProject1/InputFiles/articles.xlsx
+++ b/PycharmProject/pythonProject1/InputFiles/articles.xlsx
@@ -375,7 +375,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,8 +412,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
 </worksheet>
 </file>
 
